--- a/ResultadoEleicoesDistritos/BEJA_VIDIGUEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_VIDIGUEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>1373</v>
       </c>
       <c r="H2" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J2" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M2" t="n">
         <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>57</v>
       </c>
       <c r="T2" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="U2" t="n">
         <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
